--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -1,104 +1,429 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lieweiai\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A45315A-9710-4A22-BF2B-F579FF2E12D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>项目日志表</t>
+  </si>
+  <si>
+    <t>阙豆林</t>
+  </si>
+  <si>
+    <t>秦雅君</t>
+  </si>
+  <si>
+    <t>刘可平</t>
+  </si>
+  <si>
+    <t>龚政</t>
+  </si>
+  <si>
+    <t>索康乐</t>
+  </si>
+  <si>
+    <t>张越</t>
+  </si>
   <si>
     <t>第一周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找项目相关模型，研讨确认疲劳驾驶项目</t>
+  </si>
+  <si>
+    <t>分析疲劳驾驶项目流程，查找疲劳驾驶相关的模型</t>
+  </si>
+  <si>
+    <t>测试关键点提取多种模型性能，测试HOG，seataFace模型</t>
+  </si>
+  <si>
+    <t>下载yolov5官方代码跑demo。打电话、抽烟数据集标注</t>
   </si>
   <si>
     <t>第二周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第三周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阙豆林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦雅君</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘可平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龚政</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索康乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张越</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目日志表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -108,29 +433,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -138,45 +463,278 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -186,18 +744,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -246,7 +854,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -281,7 +889,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -455,36 +1063,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="8.625" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="6" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="6" max="6" width="53.375" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -493,84 +1097,92 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6">
         <v>44032</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+    <row r="5" spans="1:7">
+      <c r="A5" s="6">
         <v>44033</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+    <row r="6" spans="1:7">
+      <c r="A6" s="6">
         <v>44034</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+    <row r="7" spans="1:7">
+      <c r="A7" s="6">
         <v>44035</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+    <row r="8" spans="1:7">
+      <c r="A8" s="6">
         <v>44036</v>
       </c>
       <c r="B8" s="2"/>
@@ -580,19 +1192,19 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+    <row r="9" spans="1:7">
+      <c r="A9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="6">
         <v>44039</v>
       </c>
       <c r="B10" s="2"/>
@@ -602,8 +1214,8 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+    <row r="11" spans="1:7">
+      <c r="A11" s="6">
         <v>44040</v>
       </c>
       <c r="B11" s="2"/>
@@ -613,8 +1225,8 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+    <row r="12" spans="1:7">
+      <c r="A12" s="6">
         <v>44041</v>
       </c>
       <c r="B12" s="2"/>
@@ -624,8 +1236,8 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+    <row r="13" spans="1:7">
+      <c r="A13" s="6">
         <v>44042</v>
       </c>
       <c r="B13" s="2"/>
@@ -635,8 +1247,8 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+    <row r="14" spans="1:7">
+      <c r="A14" s="6">
         <v>44043</v>
       </c>
       <c r="B14" s="2"/>
@@ -646,19 +1258,19 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="6">
         <v>44046</v>
       </c>
       <c r="B16" s="2"/>
@@ -668,8 +1280,8 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+    <row r="17" spans="1:7">
+      <c r="A17" s="6">
         <v>44047</v>
       </c>
       <c r="B17" s="2"/>
@@ -679,8 +1291,8 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+    <row r="18" spans="1:7">
+      <c r="A18" s="6">
         <v>44048</v>
       </c>
       <c r="B18" s="2"/>
@@ -690,8 +1302,8 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+    <row r="19" spans="1:7">
+      <c r="A19" s="6">
         <v>44049</v>
       </c>
       <c r="B19" s="2"/>
@@ -701,8 +1313,8 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+    <row r="20" spans="1:7">
+      <c r="A20" s="6">
         <v>44050</v>
       </c>
       <c r="B20" s="2"/>
@@ -719,8 +1331,8 @@
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B15:G15"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>项目日志表</t>
   </si>
@@ -40,13 +40,25 @@
     <t>第一周</t>
   </si>
   <si>
+    <t>研讨项目需求，提出需要的模型</t>
+  </si>
+  <si>
     <t>查找项目相关模型，研讨确认疲劳驾驶项目</t>
   </si>
   <si>
+    <t>分析驾驶流程，查找相关模型</t>
+  </si>
+  <si>
     <t>分析疲劳驾驶项目流程，查找疲劳驾驶相关的模型</t>
   </si>
   <si>
+    <t>测试查找到的模型</t>
+  </si>
+  <si>
     <t>测试关键点提取多种模型性能，测试HOG，seataFace模型</t>
+  </si>
+  <si>
+    <t>数据集标注：电话、抽烟。跑YOLO demo，读PFLD论文</t>
   </si>
   <si>
     <t>下载yolov5官方代码跑demo。打电话、抽烟数据集标注</t>
@@ -63,13 +75,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,29 +91,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,120 +233,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -238,187 +243,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,41 +489,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,28 +516,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,151 +536,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,7 +1077,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1081,7 +1086,7 @@
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="8.625" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="44.5" customWidth="1"/>
     <col min="6" max="6" width="53.375" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
   </cols>
@@ -1136,9 +1141,11 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -1149,9 +1156,11 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -1162,9 +1171,11 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -1175,9 +1186,11 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -1194,7 +1207,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -1260,7 +1273,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>

--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="29040" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>项目日志表</t>
   </si>
@@ -40,28 +40,43 @@
     <t>第一周</t>
   </si>
   <si>
+    <t>收集了数据，查找了很多模型算法</t>
+  </si>
+  <si>
     <t>研讨项目需求，提出需要的模型</t>
   </si>
   <si>
     <t>查找项目相关模型，研讨确认疲劳驾驶项目</t>
   </si>
   <si>
+    <t>跑了项目效果，跑模型landmark</t>
+  </si>
+  <si>
     <t>分析驾驶流程，查找相关模型</t>
   </si>
   <si>
     <t>分析疲劳驾驶项目流程，查找疲劳驾驶相关的模型</t>
   </si>
   <si>
+    <t>landmark和EAR,MAR的结合</t>
+  </si>
+  <si>
     <t>测试查找到的模型</t>
   </si>
   <si>
     <t>测试关键点提取多种模型性能，测试HOG，seataFace模型</t>
   </si>
   <si>
+    <t>数据的整理，数据集的制作</t>
+  </si>
+  <si>
     <t>数据集标注：电话、抽烟。跑YOLO demo，读PFLD论文</t>
   </si>
   <si>
     <t>下载yolov5官方代码跑demo。打电话、抽烟数据集标注</t>
+  </si>
+  <si>
+    <t>模型效果测试，模型参数调整，跑yolov5</t>
   </si>
   <si>
     <t>第二周</t>
@@ -75,11 +90,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -90,6 +105,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -97,11 +173,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,56 +211,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -179,8 +219,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,49 +229,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -243,31 +258,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,151 +438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,26 +504,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,8 +522,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,34 +546,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,16 +566,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,133 +619,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1077,7 +1092,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1085,7 +1100,7 @@
     <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="8.625" customWidth="1"/>
-    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="34.75" customWidth="1"/>
     <col min="5" max="5" width="44.5" customWidth="1"/>
     <col min="6" max="6" width="53.375" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
@@ -1140,12 +1155,14 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -1155,12 +1172,14 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -1170,12 +1189,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -1185,12 +1206,14 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -1200,14 +1223,16 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -1273,7 +1298,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>

--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="12855"/>
+    <workbookView windowWidth="22700" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>项目日志表</t>
   </si>
@@ -40,6 +40,9 @@
     <t>第一周</t>
   </si>
   <si>
+    <t>查找项目资料</t>
+  </si>
+  <si>
     <t>收集了数据，查找了很多模型算法</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>查找项目相关模型，研讨确认疲劳驾驶项目</t>
   </si>
   <si>
+    <t>测试模型:Retina_face；dlib</t>
+  </si>
+  <si>
     <t>跑了项目效果，跑模型landmark</t>
   </si>
   <si>
@@ -58,6 +64,9 @@
     <t>分析疲劳驾驶项目流程，查找疲劳驾驶相关的模型</t>
   </si>
   <si>
+    <t>查找数据集和提交文档标准</t>
+  </si>
+  <si>
     <t>landmark和EAR,MAR的结合</t>
   </si>
   <si>
@@ -67,6 +76,9 @@
     <t>测试关键点提取多种模型性能，测试HOG，seataFace模型</t>
   </si>
   <si>
+    <t>标注数据</t>
+  </si>
+  <si>
     <t>数据的整理，数据集的制作</t>
   </si>
   <si>
@@ -74,6 +86,9 @@
   </si>
   <si>
     <t>下载yolov5官方代码跑demo。打电话、抽烟数据集标注</t>
+  </si>
+  <si>
+    <t>训练模型</t>
   </si>
   <si>
     <t>模型效果测试，模型参数调整，跑yolov5</t>
@@ -90,13 +105,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,9 +120,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,67 +172,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,9 +203,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,9 +234,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,21 +243,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,187 +280,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,17 +526,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,30 +549,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,163 +594,184 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -761,66 +783,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1087,19 +1112,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="33.4732142857143" customWidth="1"/>
     <col min="4" max="4" width="34.75" customWidth="1"/>
     <col min="5" max="5" width="44.5" customWidth="1"/>
     <col min="6" max="6" width="53.375" customWidth="1"/>
@@ -1147,84 +1172,94 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="6">
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" ht="13.2" spans="1:7">
+      <c r="A4" s="5">
         <v>44032</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>44033</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>44034</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>44035</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>44036</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1232,17 +1267,17 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>44039</v>
       </c>
       <c r="B10" s="2"/>
@@ -1253,7 +1288,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>44040</v>
       </c>
       <c r="B11" s="2"/>
@@ -1264,7 +1299,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>44041</v>
       </c>
       <c r="B12" s="2"/>
@@ -1275,7 +1310,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>44042</v>
       </c>
       <c r="B13" s="2"/>
@@ -1286,7 +1321,7 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>44043</v>
       </c>
       <c r="B14" s="2"/>
@@ -1298,17 +1333,17 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>44046</v>
       </c>
       <c r="B16" s="2"/>
@@ -1319,7 +1354,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>44047</v>
       </c>
       <c r="B17" s="2"/>
@@ -1330,7 +1365,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>44048</v>
       </c>
       <c r="B18" s="2"/>
@@ -1341,7 +1376,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>44049</v>
       </c>
       <c r="B19" s="2"/>
@@ -1352,7 +1387,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>44050</v>
       </c>
       <c r="B20" s="2"/>
@@ -1369,7 +1404,7 @@
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B15:G15"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>

--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22700" windowHeight="11460"/>
+    <workbookView windowWidth="22200" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>项目日志表</t>
   </si>
@@ -52,6 +52,11 @@
     <t>查找项目相关模型，研讨确认疲劳驾驶项目</t>
   </si>
   <si>
+    <t>讨论4个项目，分析任务难易程度，
+分析数据集获取难易，开源框架与可能用到的库；
+投票确定项目，做危险驾驶识别，收集数据集</t>
+  </si>
+  <si>
     <t>测试模型:Retina_face；dlib</t>
   </si>
   <si>
@@ -64,6 +69,10 @@
     <t>分析疲劳驾驶项目流程，查找疲劳驾驶相关的模型</t>
   </si>
   <si>
+    <t>项目整体流程分析，细节分析，确认流程第一步；
+确定第二天的任务，先以MTCNN、YOLO、RetinaFace做一下demo，计算出fps与mAP，为之后的部署选择确定的框架</t>
+  </si>
+  <si>
     <t>查找数据集和提交文档标准</t>
   </si>
   <si>
@@ -76,6 +85,9 @@
     <t>测试关键点提取多种模型性能，测试HOG，seataFace模型</t>
   </si>
   <si>
+    <t>确定框架，训练关键点与眨眼、打哈欠及头部姿态估计，需求报告，测试关键点与眨眼，打哈欠行为及头部姿态估计</t>
+  </si>
+  <si>
     <t>标注数据</t>
   </si>
   <si>
@@ -86,6 +98,9 @@
   </si>
   <si>
     <t>下载yolov5官方代码跑demo。打电话、抽烟数据集标注</t>
+  </si>
+  <si>
+    <t>数据集标注人员分配，技术经理进行结构设计，进行yolov5行为识别训练</t>
   </si>
   <si>
     <t>训练模型</t>
@@ -105,11 +120,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -128,37 +143,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,25 +187,62 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,29 +254,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -234,8 +262,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,29 +272,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,187 +295,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,18 +543,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,6 +557,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,11 +602,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,152 +641,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -783,69 +798,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1112,23 +1130,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="33.4732142857143" customWidth="1"/>
+    <col min="3" max="3" width="33.475" customWidth="1"/>
     <col min="4" max="4" width="34.75" customWidth="1"/>
     <col min="5" max="5" width="44.5" customWidth="1"/>
     <col min="6" max="6" width="53.375" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="7" max="7" width="43.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1172,14 +1190,14 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" ht="13.2" spans="1:7">
-      <c r="A4" s="5">
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" ht="42.75" spans="1:7">
+      <c r="A4" s="6">
         <v>44032</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1191,93 +1209,101 @@
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="5">
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="57" spans="1:7">
+      <c r="A5" s="6">
         <v>44033</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="5">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" ht="42.75" spans="1:7">
+      <c r="A6" s="6">
         <v>44034</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="5">
+        <v>21</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" ht="28.5" spans="1:7">
+      <c r="A7" s="6">
         <v>44035</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>44036</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="7" t="s">
-        <v>26</v>
+      <c r="A9" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="8"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>44039</v>
       </c>
       <c r="B10" s="2"/>
@@ -1288,7 +1314,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>44040</v>
       </c>
       <c r="B11" s="2"/>
@@ -1299,7 +1325,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>44041</v>
       </c>
       <c r="B12" s="2"/>
@@ -1310,7 +1336,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>44042</v>
       </c>
       <c r="B13" s="2"/>
@@ -1321,7 +1347,7 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="5">
+      <c r="A14" s="6">
         <v>44043</v>
       </c>
       <c r="B14" s="2"/>
@@ -1333,17 +1359,17 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="8"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="5">
+      <c r="A16" s="6">
         <v>44046</v>
       </c>
       <c r="B16" s="2"/>
@@ -1354,7 +1380,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <v>44047</v>
       </c>
       <c r="B17" s="2"/>
@@ -1365,7 +1391,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="5">
+      <c r="A18" s="6">
         <v>44048</v>
       </c>
       <c r="B18" s="2"/>
@@ -1376,7 +1402,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="5">
+      <c r="A19" s="6">
         <v>44049</v>
       </c>
       <c r="B19" s="2"/>
@@ -1387,7 +1413,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="5">
+      <c r="A20" s="6">
         <v>44050</v>
       </c>
       <c r="B20" s="2"/>

--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22200" windowHeight="9210"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>项目日志表</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>模型效果测试，模型参数调整，跑yolov5</t>
+  </si>
+  <si>
+    <t>使用抽烟、打电话数据集训练yolov5模型</t>
   </si>
   <si>
     <t>第二周</t>
@@ -120,9 +123,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -150,29 +153,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,53 +189,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,6 +213,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -262,25 +244,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,37 +298,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,145 +466,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,44 +546,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,7 +572,57 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,31 +641,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,31 +659,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,100 +695,97 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1134,8 +1137,8 @@
   <sheetPr/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1288,12 +1291,14 @@
         <v>29</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -1359,7 +1364,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>

--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="13650" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>项目日志表</t>
   </si>
@@ -112,7 +112,16 @@
     <t>使用抽烟、打电话数据集训练yolov5模型</t>
   </si>
   <si>
+    <t>项目整体流程测试，yolov5识别测试</t>
+  </si>
+  <si>
     <t>第二周</t>
+  </si>
+  <si>
+    <t>项目流程图框架梳理、功能清单梳理、需求文档梳理</t>
+  </si>
+  <si>
+    <t>项目打包onnx，jetson nano环境部署配置</t>
   </si>
   <si>
     <t>第三周</t>
@@ -124,8 +133,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -146,6 +155,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -153,29 +253,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,101 +275,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,31 +307,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,85 +451,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,61 +487,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,8 +556,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,26 +601,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,23 +630,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,10 +656,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,133 +668,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1137,8 +1146,8 @@
   <sheetPr/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1294,11 +1303,13 @@
       <c r="F8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -1307,7 +1318,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" ht="28.5" spans="1:7">
       <c r="A10" s="6">
         <v>44039</v>
       </c>
@@ -1316,7 +1327,9 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6">
@@ -1327,9 +1340,11 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="6">
         <v>44041</v>
       </c>
@@ -1338,7 +1353,6 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6">
@@ -1364,7 +1378,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>

--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22700" windowHeight="11460"/>
+    <workbookView windowWidth="21840" windowHeight="11080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,10 +106,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -128,12 +128,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -143,22 +151,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,12 +182,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -187,19 +211,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,17 +255,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,43 +270,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -280,181 +280,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,26 +529,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,6 +565,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -579,17 +585,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,165 +604,170 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1123,7 +1123,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14.625" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="20.8303571428571" customWidth="1"/>
     <col min="3" max="3" width="33.4732142857143" customWidth="1"/>
     <col min="4" max="4" width="34.75" customWidth="1"/>
     <col min="5" max="5" width="44.5" customWidth="1"/>

--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21840" windowHeight="11080"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>项目日志表</t>
   </si>
@@ -94,7 +94,16 @@
     <t>模型效果测试，模型参数调整，跑yolov5</t>
   </si>
   <si>
+    <t>训练yolov5模型</t>
+  </si>
+  <si>
     <t>第二周</t>
+  </si>
+  <si>
+    <t>训练yolov4-tiny模型</t>
+  </si>
+  <si>
+    <t>linux配置安装环境，挑食生成tensor引擎代码</t>
   </si>
   <si>
     <t>第三周</t>
@@ -105,11 +114,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -128,30 +137,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,6 +196,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -173,16 +250,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,69 +265,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,49 +289,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,133 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,45 +539,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -590,6 +560,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -606,11 +591,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,148 +635,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -783,6 +792,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -791,61 +803,58 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1112,19 +1121,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14.625" customWidth="1"/>
-    <col min="2" max="2" width="20.8303571428571" customWidth="1"/>
-    <col min="3" max="3" width="33.4732142857143" customWidth="1"/>
+    <col min="2" max="2" width="20.8333333333333" customWidth="1"/>
+    <col min="3" max="3" width="33.475" customWidth="1"/>
     <col min="4" max="4" width="34.75" customWidth="1"/>
     <col min="5" max="5" width="44.5" customWidth="1"/>
     <col min="6" max="6" width="53.375" customWidth="1"/>
@@ -1172,14 +1181,14 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" ht="13.2" spans="1:7">
-      <c r="A4" s="5">
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" ht="15.75" spans="1:7">
+      <c r="A4" s="6">
         <v>44032</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1194,7 +1203,7 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>44033</v>
       </c>
       <c r="B5" s="2"/>
@@ -1213,7 +1222,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>44034</v>
       </c>
       <c r="B6" s="2"/>
@@ -1232,7 +1241,7 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>44035</v>
       </c>
       <c r="B7" s="2"/>
@@ -1251,7 +1260,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>44036</v>
       </c>
       <c r="B8" s="2"/>
@@ -1262,44 +1271,50 @@
         <v>25</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="7" t="s">
-        <v>26</v>
+      <c r="A9" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="8"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>44039</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>44040</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>44041</v>
       </c>
       <c r="B12" s="2"/>
@@ -1310,7 +1325,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>44042</v>
       </c>
       <c r="B13" s="2"/>
@@ -1321,7 +1336,7 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="5">
+      <c r="A14" s="6">
         <v>44043</v>
       </c>
       <c r="B14" s="2"/>
@@ -1333,17 +1348,17 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="8"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="5">
+      <c r="A16" s="6">
         <v>44046</v>
       </c>
       <c r="B16" s="2"/>
@@ -1354,7 +1369,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <v>44047</v>
       </c>
       <c r="B17" s="2"/>
@@ -1365,7 +1380,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="5">
+      <c r="A18" s="6">
         <v>44048</v>
       </c>
       <c r="B18" s="2"/>
@@ -1376,7 +1391,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="5">
+      <c r="A19" s="6">
         <v>44049</v>
       </c>
       <c r="B19" s="2"/>
@@ -1387,7 +1402,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="5">
+      <c r="A20" s="6">
         <v>44050</v>
       </c>
       <c r="B20" s="2"/>

--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>项目日志表</t>
   </si>
@@ -82,7 +82,7 @@
     <t>数据的整理，数据集的制作</t>
   </si>
   <si>
-    <t>数据集标注：电话、抽烟。跑YOLO demo，读PFLD论文</t>
+    <t>数据集标注：电话、抽烟。跑YOLO demo，收集论文资料</t>
   </si>
   <si>
     <t>下载yolov5官方代码跑demo。打电话、抽烟数据集标注</t>
@@ -94,13 +94,22 @@
     <t>模型效果测试，模型参数调整，跑yolov5</t>
   </si>
   <si>
+    <t>训练YOLO模型</t>
+  </si>
+  <si>
     <t>训练yolov5模型</t>
   </si>
   <si>
     <t>第二周</t>
   </si>
   <si>
+    <t>看论文，翻译论文</t>
+  </si>
+  <si>
     <t>训练yolov4-tiny模型</t>
+  </si>
+  <si>
+    <t>配置linux安装环境</t>
   </si>
   <si>
     <t>linux配置安装环境，挑食生成tensor引擎代码</t>
@@ -114,9 +123,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -137,7 +146,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,14 +227,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,24 +243,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,79 +265,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -289,187 +298,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,11 +544,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,17 +613,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,40 +641,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,133 +659,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1126,7 +1135,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1270,15 +1279,17 @@
       <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -1294,9 +1305,11 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G10" s="2"/>
     </row>
@@ -1307,9 +1320,11 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -1348,7 +1363,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>

--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="17700" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>项目日志表</t>
   </si>
@@ -52,6 +52,11 @@
     <t>查找项目相关模型，研讨确认疲劳驾驶项目</t>
   </si>
   <si>
+    <t>讨论4个项目，分析任务难易程度，
+分析数据集获取难易，开源框架与可能用到的库；
+投票确定项目，做危险驾驶识别，收集数据集</t>
+  </si>
+  <si>
     <t>测试模型:Retina_face；dlib</t>
   </si>
   <si>
@@ -64,6 +69,10 @@
     <t>分析疲劳驾驶项目流程，查找疲劳驾驶相关的模型</t>
   </si>
   <si>
+    <t>项目整体流程分析，细节分析，确认流程第一步；
+确定第二天的任务，先以MTCNN、YOLO、RetinaFace做一下demo，计算出fps与mAP，为之后的部署选择确定的框架</t>
+  </si>
+  <si>
     <t>查找数据集和提交文档标准</t>
   </si>
   <si>
@@ -76,6 +85,11 @@
     <t>测试关键点提取多种模型性能，测试HOG，seataFace模型</t>
   </si>
   <si>
+    <t>确定框架，训练关键点与眨眼、打哈欠及头部姿态估计，
+需求报告，
+测试关键点与眨眼，打哈欠行为及头部姿态估计</t>
+  </si>
+  <si>
     <t>标注数据</t>
   </si>
   <si>
@@ -88,6 +102,11 @@
     <t>下载yolov5官方代码跑demo。打电话、抽烟数据集标注</t>
   </si>
   <si>
+    <t>数据集标注人员分配，
+技术经理进行结构设计，
+进行yolov5行为识别训练</t>
+  </si>
+  <si>
     <t>训练模型</t>
   </si>
   <si>
@@ -100,6 +119,9 @@
     <t>训练yolov5模型</t>
   </si>
   <si>
+    <t>项目整体流程测试，yolov5识别测试</t>
+  </si>
+  <si>
     <t>第二周</t>
   </si>
   <si>
@@ -109,10 +131,25 @@
     <t>训练yolov4-tiny模型</t>
   </si>
   <si>
+    <t>项目流程图框架梳理、功能清单梳理、需求文档梳理</t>
+  </si>
+  <si>
     <t>配置linux安装环境</t>
   </si>
   <si>
     <t>linux配置安装环境，挑食生成tensor引擎代码</t>
+  </si>
+  <si>
+    <t>项目打包onnx，jetson nano环境部署配置</t>
+  </si>
+  <si>
+    <t>项目onnx转tensorrt引擎</t>
+  </si>
+  <si>
+    <t>总结项目存在的问题，对现有问题进行梳理</t>
+  </si>
+  <si>
+    <t>完善项目推进表，对tensorrt加速进行重新编译</t>
   </si>
   <si>
     <t>第三周</t>
@@ -124,9 +161,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="21">
@@ -146,29 +183,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,6 +240,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -192,27 +305,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,29 +318,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -256,38 +325,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -298,187 +335,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,23 +599,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,6 +620,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -613,31 +664,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,10 +684,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,137 +696,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -809,6 +846,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1134,8 +1174,8 @@
   <sheetPr/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1146,7 +1186,7 @@
     <col min="4" max="4" width="34.75" customWidth="1"/>
     <col min="5" max="5" width="44.5" customWidth="1"/>
     <col min="6" max="6" width="53.375" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="7" max="7" width="48.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1192,7 +1232,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" ht="15.75" spans="1:7">
+    <row r="4" ht="85.5" spans="1:7">
       <c r="A4" s="6">
         <v>44032</v>
       </c>
@@ -1209,64 +1249,72 @@
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="85.5" spans="1:7">
       <c r="A5" s="6">
         <v>44033</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" ht="71.25" spans="1:7">
       <c r="A6" s="6">
         <v>44034</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" ht="42.75" spans="1:7">
       <c r="A7" s="6">
         <v>44035</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="6">
@@ -1274,22 +1322,24 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
+      <c r="A9" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -1306,12 +1356,14 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6">
@@ -1321,12 +1373,14 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6">
@@ -1337,7 +1391,9 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6">
@@ -1348,7 +1404,9 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6">
@@ -1359,11 +1417,13 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>

--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17700" windowHeight="9210"/>
+    <workbookView windowWidth="25590" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>项目日志表</t>
   </si>
@@ -125,6 +125,9 @@
     <t>第二周</t>
   </si>
   <si>
+    <t>爬取相关图像，对图像进行清洗，重新做样本</t>
+  </si>
+  <si>
     <t>看论文，翻译论文</t>
   </si>
   <si>
@@ -134,6 +137,9 @@
     <t>项目流程图框架梳理、功能清单梳理、需求文档梳理</t>
   </si>
   <si>
+    <t>重新制作标签，重新跑yolov5网络</t>
+  </si>
+  <si>
     <t>配置linux安装环境</t>
   </si>
   <si>
@@ -143,10 +149,19 @@
     <t>项目打包onnx，jetson nano环境部署配置</t>
   </si>
   <si>
+    <t>将所有网络整合，并寻找求二维转三维的相机参数</t>
+  </si>
+  <si>
     <t>项目onnx转tensorrt引擎</t>
   </si>
   <si>
+    <t>c++代码寻找相机参数已经放弃，转而用python</t>
+  </si>
+  <si>
     <t>总结项目存在的问题，对现有问题进行梳理</t>
+  </si>
+  <si>
+    <t>成功求得相机内参，畸变参数，将已经生成的tensorRT引擎与代码结合</t>
   </si>
   <si>
     <t>完善项目推进表，对tensorrt加速进行重新编译</t>
@@ -160,13 +175,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,51 +197,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,71 +224,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,6 +246,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -325,6 +275,76 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -335,187 +355,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,6 +601,80 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -604,90 +698,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -696,137 +716,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -852,6 +872,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1174,16 +1197,16 @@
   <sheetPr/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14.625" customWidth="1"/>
-    <col min="2" max="2" width="20.8333333333333" customWidth="1"/>
-    <col min="3" max="3" width="33.475" customWidth="1"/>
-    <col min="4" max="4" width="34.75" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="43.375" customWidth="1"/>
+    <col min="4" max="4" width="63.875" customWidth="1"/>
     <col min="5" max="5" width="44.5" customWidth="1"/>
     <col min="6" max="6" width="53.375" customWidth="1"/>
     <col min="7" max="7" width="48.375" customWidth="1"/>
@@ -1232,7 +1255,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" ht="85.5" spans="1:7">
+    <row r="4" ht="42.75" spans="1:7">
       <c r="A4" s="6">
         <v>44032</v>
       </c>
@@ -1253,7 +1276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="85.5" spans="1:7">
+    <row r="5" ht="57" spans="1:7">
       <c r="A5" s="6">
         <v>44033</v>
       </c>
@@ -1274,7 +1297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" ht="71.25" spans="1:7">
+    <row r="6" ht="42.75" spans="1:7">
       <c r="A6" s="6">
         <v>44034</v>
       </c>
@@ -1354,15 +1377,17 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1371,15 +1396,17 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="E11" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1388,11 +1415,13 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1401,11 +1430,13 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1414,16 +1445,18 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>

--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25590" windowHeight="11670"/>
+    <workbookView windowWidth="22640" windowHeight="11080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>项目日志表</t>
   </si>
@@ -125,6 +125,9 @@
     <t>第二周</t>
   </si>
   <si>
+    <t>用yolov5训练打电话数据集（标注人和手机）</t>
+  </si>
+  <si>
     <t>爬取相关图像，对图像进行清洗，重新做样本</t>
   </si>
   <si>
@@ -137,28 +140,40 @@
     <t>项目流程图框架梳理、功能清单梳理、需求文档梳理</t>
   </si>
   <si>
+    <t>jetson nano环境部署</t>
+  </si>
+  <si>
     <t>重新制作标签，重新跑yolov5网络</t>
   </si>
   <si>
     <t>配置linux安装环境</t>
   </si>
   <si>
-    <t>linux配置安装环境，挑食生成tensor引擎代码</t>
+    <t>linux配置安装环境，调试生成tensor引擎代码</t>
   </si>
   <si>
     <t>项目打包onnx，jetson nano环境部署配置</t>
   </si>
   <si>
+    <t>研究测试代码EAR，MAR原理</t>
+  </si>
+  <si>
     <t>将所有网络整合，并寻找求二维转三维的相机参数</t>
   </si>
   <si>
     <t>项目onnx转tensorrt引擎</t>
   </si>
   <si>
+    <t>PFLD论文查阅</t>
+  </si>
+  <si>
     <t>c++代码寻找相机参数已经放弃，转而用python</t>
   </si>
   <si>
     <t>总结项目存在的问题，对现有问题进行梳理</t>
+  </si>
+  <si>
+    <t>RFB论文查阅</t>
   </si>
   <si>
     <t>成功求得相机内参，畸变参数，将已经生成的tensorRT引擎与代码结合</t>
@@ -175,11 +190,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -203,14 +218,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,123 +331,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,37 +370,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,145 +544,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,38 +619,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,10 +636,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -690,159 +673,191 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -858,75 +873,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1193,15 +1208,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="26.5" customWidth="1"/>
@@ -1253,14 +1268,14 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" ht="42.75" spans="1:7">
-      <c r="A4" s="6">
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" ht="38" spans="1:7">
+      <c r="A4" s="5">
         <v>44032</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1272,12 +1287,12 @@
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="57" spans="1:7">
-      <c r="A5" s="6">
+    <row r="5" ht="50" spans="1:7">
+      <c r="A5" s="5">
         <v>44033</v>
       </c>
       <c r="B5" s="2"/>
@@ -1293,12 +1308,12 @@
       <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" ht="42.75" spans="1:7">
-      <c r="A6" s="6">
+    <row r="6" ht="50" spans="1:7">
+      <c r="A6" s="5">
         <v>44034</v>
       </c>
       <c r="B6" s="2"/>
@@ -1314,12 +1329,12 @@
       <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="42.75" spans="1:7">
-      <c r="A7" s="6">
+    <row r="7" ht="38" spans="1:7">
+      <c r="A7" s="5">
         <v>44035</v>
       </c>
       <c r="B7" s="2"/>
@@ -1335,12 +1350,12 @@
       <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>44036</v>
       </c>
       <c r="B8" s="2"/>
@@ -1361,7 +1376,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="3"/>
@@ -1369,104 +1384,114 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="6">
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" ht="17.6" spans="1:7">
+      <c r="A10" s="5">
         <v>44039</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="D10" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" ht="17.6" spans="1:7">
+      <c r="A11" s="5">
         <v>44040</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="10" t="s">
-        <v>38</v>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" ht="17.6" spans="1:7">
+      <c r="A12" s="5">
         <v>44041</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="10" t="s">
-        <v>42</v>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" ht="17.6" spans="1:7">
+      <c r="A13" s="5">
         <v>44042</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="10" t="s">
-        <v>44</v>
+      <c r="C13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" ht="17.6" spans="1:7">
+      <c r="A14" s="5">
         <v>44043</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="10" t="s">
-        <v>46</v>
+      <c r="C14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>44046</v>
       </c>
       <c r="B16" s="2"/>
@@ -1477,7 +1502,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>44047</v>
       </c>
       <c r="B17" s="2"/>
@@ -1488,7 +1513,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>44048</v>
       </c>
       <c r="B18" s="2"/>
@@ -1499,7 +1524,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>44049</v>
       </c>
       <c r="B19" s="2"/>
@@ -1510,7 +1535,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>44050</v>
       </c>
       <c r="B20" s="2"/>

--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22640" windowHeight="11080"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>项目日志表</t>
   </si>
@@ -161,6 +161,9 @@
     <t>将所有网络整合，并寻找求二维转三维的相机参数</t>
   </si>
   <si>
+    <t>调试生成pfld与RBF网络tensorRT引擎文件</t>
+  </si>
+  <si>
     <t>项目onnx转tensorrt引擎</t>
   </si>
   <si>
@@ -170,6 +173,9 @@
     <t>c++代码寻找相机参数已经放弃，转而用python</t>
   </si>
   <si>
+    <t>调试生成yolov4网络tensorRT引擎文件</t>
+  </si>
+  <si>
     <t>总结项目存在的问题，对现有问题进行梳理</t>
   </si>
   <si>
@@ -179,10 +185,16 @@
     <t>成功求得相机内参，畸变参数，将已经生成的tensorRT引擎与代码结合</t>
   </si>
   <si>
+    <t>调试生成yolov5网络tensorRT引擎文件</t>
+  </si>
+  <si>
     <t>完善项目推进表，对tensorrt加速进行重新编译</t>
   </si>
   <si>
     <t>第三周</t>
+  </si>
+  <si>
+    <t>阅读RBF论文，梳理项目框架功能文档</t>
   </si>
 </sst>
 </file>
@@ -190,11 +202,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -218,6 +230,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -225,7 +328,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -233,29 +336,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,98 +372,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -376,181 +388,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,29 +628,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,17 +658,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,11 +686,27 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,148 +728,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -873,75 +885,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1208,15 +1220,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="26.5" customWidth="1"/>
@@ -1268,14 +1280,14 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" ht="38" spans="1:7">
-      <c r="A4" s="5">
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" ht="42.75" spans="1:7">
+      <c r="A4" s="6">
         <v>44032</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1287,12 +1299,12 @@
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="50" spans="1:7">
-      <c r="A5" s="5">
+    <row r="5" ht="57" spans="1:7">
+      <c r="A5" s="6">
         <v>44033</v>
       </c>
       <c r="B5" s="2"/>
@@ -1308,12 +1320,12 @@
       <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" ht="50" spans="1:7">
-      <c r="A6" s="5">
+    <row r="6" ht="42.75" spans="1:7">
+      <c r="A6" s="6">
         <v>44034</v>
       </c>
       <c r="B6" s="2"/>
@@ -1329,12 +1341,12 @@
       <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="38" spans="1:7">
-      <c r="A7" s="5">
+    <row r="7" ht="42.75" spans="1:7">
+      <c r="A7" s="6">
         <v>44035</v>
       </c>
       <c r="B7" s="2"/>
@@ -1350,12 +1362,12 @@
       <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>44036</v>
       </c>
       <c r="B8" s="2"/>
@@ -1376,7 +1388,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="3"/>
@@ -1384,17 +1396,17 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" ht="17.6" spans="1:7">
-      <c r="A10" s="5">
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="6">
         <v>44039</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="10" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -1407,15 +1419,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" ht="17.6" spans="1:7">
-      <c r="A11" s="5">
+    <row r="11" spans="1:7">
+      <c r="A11" s="6">
         <v>44040</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1428,81 +1440,89 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" ht="17.6" spans="1:7">
-      <c r="A12" s="5">
+    <row r="12" spans="1:7">
+      <c r="A12" s="6">
         <v>44041</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="G12" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" ht="17.6" spans="1:7">
-      <c r="A13" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="6">
         <v>44042</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="8" t="s">
         <v>48</v>
       </c>
+      <c r="D13" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="G13" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" ht="17.6" spans="1:7">
-      <c r="A14" s="5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="6">
         <v>44043</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="G14" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="5">
+      <c r="A16" s="6">
         <v>44046</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <v>44047</v>
       </c>
       <c r="B17" s="2"/>
@@ -1513,7 +1533,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="5">
+      <c r="A18" s="6">
         <v>44048</v>
       </c>
       <c r="B18" s="2"/>
@@ -1524,7 +1544,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="5">
+      <c r="A19" s="6">
         <v>44049</v>
       </c>
       <c r="B19" s="2"/>
@@ -1535,7 +1555,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="5">
+      <c r="A20" s="6">
         <v>44050</v>
       </c>
       <c r="B20" s="2"/>

--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>项目日志表</t>
   </si>
@@ -194,7 +194,13 @@
     <t>第三周</t>
   </si>
   <si>
+    <t>梳理要提交文档</t>
+  </si>
+  <si>
     <t>阅读RBF论文，梳理项目框架功能文档</t>
+  </si>
+  <si>
+    <t>提交项目进度表，答辩PPT第一版制作</t>
   </si>
 </sst>
 </file>
@@ -202,11 +208,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -230,6 +236,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -237,12 +257,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -252,78 +319,47 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -335,41 +371,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -382,43 +388,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,139 +562,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,6 +630,39 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,184 +731,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -885,75 +891,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1220,15 +1226,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="26.5" customWidth="1"/>
@@ -1280,14 +1286,14 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" ht="42.75" spans="1:7">
-      <c r="A4" s="6">
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" ht="38" spans="1:7">
+      <c r="A4" s="5">
         <v>44032</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1299,12 +1305,12 @@
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="57" spans="1:7">
-      <c r="A5" s="6">
+    <row r="5" ht="50" spans="1:7">
+      <c r="A5" s="5">
         <v>44033</v>
       </c>
       <c r="B5" s="2"/>
@@ -1320,12 +1326,12 @@
       <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" ht="42.75" spans="1:7">
-      <c r="A6" s="6">
+    <row r="6" ht="50" spans="1:7">
+      <c r="A6" s="5">
         <v>44034</v>
       </c>
       <c r="B6" s="2"/>
@@ -1341,12 +1347,12 @@
       <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="42.75" spans="1:7">
-      <c r="A7" s="6">
+    <row r="7" ht="38" spans="1:7">
+      <c r="A7" s="5">
         <v>44035</v>
       </c>
       <c r="B7" s="2"/>
@@ -1362,12 +1368,12 @@
       <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>44036</v>
       </c>
       <c r="B8" s="2"/>
@@ -1388,7 +1394,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="3"/>
@@ -1396,17 +1402,17 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="6">
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" ht="17.6" spans="1:7">
+      <c r="A10" s="5">
         <v>44039</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -1419,15 +1425,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="6">
+    <row r="11" ht="17.6" spans="1:7">
+      <c r="A11" s="5">
         <v>44040</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1440,15 +1446,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="6">
+    <row r="12" ht="17.6" spans="1:7">
+      <c r="A12" s="5">
         <v>44041</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="2"/>
@@ -1459,15 +1465,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="6">
+    <row r="13" ht="17.6" spans="1:7">
+      <c r="A13" s="5">
         <v>44042</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="2"/>
@@ -1478,15 +1484,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="6">
+    <row r="14" ht="17.6" spans="1:7">
+      <c r="A14" s="5">
         <v>44043</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="2"/>
@@ -1506,34 +1512,38 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>44046</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>44047</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>44048</v>
       </c>
       <c r="B18" s="2"/>
@@ -1544,7 +1554,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>44049</v>
       </c>
       <c r="B19" s="2"/>
@@ -1555,7 +1565,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>44050</v>
       </c>
       <c r="B20" s="2"/>

--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11460"/>
+    <workbookView windowWidth="15220" windowHeight="11380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>项目日志表</t>
   </si>
@@ -201,6 +201,15 @@
   </si>
   <si>
     <t>提交项目进度表，答辩PPT第一版制作</t>
+  </si>
+  <si>
+    <t>答辩PTT第二版制作</t>
+  </si>
+  <si>
+    <t>yolov5 onnx,tensorrt导出</t>
+  </si>
+  <si>
+    <t>yolov4 onnx,tensorrt导出</t>
   </si>
 </sst>
 </file>
@@ -208,11 +217,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -242,10 +251,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,11 +281,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -296,84 +382,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,187 +397,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,41 +652,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,11 +678,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,10 +715,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -734,145 +743,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1230,8 +1239,8 @@
   <sheetPr/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
@@ -1547,7 +1556,9 @@
         <v>44048</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1558,7 +1569,9 @@
         <v>44049</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1569,7 +1582,9 @@
         <v>44050</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>

--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15220" windowHeight="11380"/>
+    <workbookView windowWidth="17700" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>项目日志表</t>
   </si>
@@ -200,16 +200,31 @@
     <t>阅读RBF论文，梳理项目框架功能文档</t>
   </si>
   <si>
+    <t>整理RFB与PFLD论文，对代码细节进行详细了解</t>
+  </si>
+  <si>
     <t>提交项目进度表，答辩PPT第一版制作</t>
   </si>
   <si>
+    <t>对pt转onnx转tensorrt引擎的坑进行记录</t>
+  </si>
+  <si>
     <t>答辩PTT第二版制作</t>
   </si>
   <si>
+    <t>与项目成员讨论，梳理答辩PPT，总结介绍思路</t>
+  </si>
+  <si>
     <t>yolov5 onnx,tensorrt导出</t>
   </si>
   <si>
+    <t>整理代码，项目所需文档</t>
+  </si>
+  <si>
     <t>yolov4 onnx,tensorrt导出</t>
+  </si>
+  <si>
+    <t>答辩准备</t>
   </si>
 </sst>
 </file>
@@ -217,11 +232,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -244,8 +259,76 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,15 +342,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,19 +373,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,88 +396,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -397,25 +412,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,157 +580,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,24 +658,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -676,11 +673,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,191 +747,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -900,75 +915,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1235,15 +1250,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="26.5" customWidth="1"/>
@@ -1295,14 +1310,14 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" ht="38" spans="1:7">
-      <c r="A4" s="5">
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" ht="42.75" spans="1:7">
+      <c r="A4" s="6">
         <v>44032</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1314,12 +1329,12 @@
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="50" spans="1:7">
-      <c r="A5" s="5">
+    <row r="5" ht="57" spans="1:7">
+      <c r="A5" s="6">
         <v>44033</v>
       </c>
       <c r="B5" s="2"/>
@@ -1335,12 +1350,12 @@
       <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" ht="50" spans="1:7">
-      <c r="A6" s="5">
+    <row r="6" ht="42.75" spans="1:7">
+      <c r="A6" s="6">
         <v>44034</v>
       </c>
       <c r="B6" s="2"/>
@@ -1356,12 +1371,12 @@
       <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="38" spans="1:7">
-      <c r="A7" s="5">
+    <row r="7" ht="42.75" spans="1:7">
+      <c r="A7" s="6">
         <v>44035</v>
       </c>
       <c r="B7" s="2"/>
@@ -1377,12 +1392,12 @@
       <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>44036</v>
       </c>
       <c r="B8" s="2"/>
@@ -1403,7 +1418,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="3"/>
@@ -1411,17 +1426,17 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" ht="17.6" spans="1:7">
-      <c r="A10" s="5">
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="6">
         <v>44039</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="10" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -1434,15 +1449,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" ht="17.6" spans="1:7">
-      <c r="A11" s="5">
+    <row r="11" spans="1:7">
+      <c r="A11" s="6">
         <v>44040</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1455,15 +1470,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" ht="17.6" spans="1:7">
-      <c r="A12" s="5">
+    <row r="12" spans="1:7">
+      <c r="A12" s="6">
         <v>44041</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="2"/>
@@ -1474,15 +1489,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" ht="17.6" spans="1:7">
-      <c r="A13" s="5">
+    <row r="13" spans="1:7">
+      <c r="A13" s="6">
         <v>44042</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="2"/>
@@ -1493,15 +1508,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" ht="17.6" spans="1:7">
-      <c r="A14" s="5">
+    <row r="14" spans="1:7">
+      <c r="A14" s="6">
         <v>44043</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="2"/>
@@ -1521,10 +1536,10 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="5">
+      <c r="A16" s="6">
         <v>44046</v>
       </c>
       <c r="B16" s="2"/>
@@ -1536,59 +1551,69 @@
       <c r="F16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <v>44047</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="5">
+      <c r="A18" s="6">
         <v>44048</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="5">
+      <c r="A19" s="6">
         <v>44049</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="5">
+      <c r="A20" s="6">
         <v>44050</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17700" windowHeight="9210"/>
+    <workbookView windowWidth="29040" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>项目日志表</t>
   </si>
@@ -161,6 +161,9 @@
     <t>将所有网络整合，并寻找求二维转三维的相机参数</t>
   </si>
   <si>
+    <t>理解算法原理，将项目打包成onnx，tensorrt</t>
+  </si>
+  <si>
     <t>调试生成pfld与RBF网络tensorRT引擎文件</t>
   </si>
   <si>
@@ -173,6 +176,9 @@
     <t>c++代码寻找相机参数已经放弃，转而用python</t>
   </si>
   <si>
+    <t>onnx转tensorrt时出现了问题，找问题出现的原因</t>
+  </si>
+  <si>
     <t>调试生成yolov4网络tensorRT引擎文件</t>
   </si>
   <si>
@@ -185,6 +191,9 @@
     <t>成功求得相机内参，畸变参数，将已经生成的tensorRT引擎与代码结合</t>
   </si>
   <si>
+    <t>调试tensorrt引擎文件</t>
+  </si>
+  <si>
     <t>调试生成yolov5网络tensorRT引擎文件</t>
   </si>
   <si>
@@ -197,6 +206,9 @@
     <t>梳理要提交文档</t>
   </si>
   <si>
+    <t>梳理文档信息</t>
+  </si>
+  <si>
     <t>阅读RBF论文，梳理项目框架功能文档</t>
   </si>
   <si>
@@ -206,22 +218,34 @@
     <t>提交项目进度表，答辩PPT第一版制作</t>
   </si>
   <si>
+    <t>提交项目进度表，制作PPT</t>
+  </si>
+  <si>
     <t>对pt转onnx转tensorrt引擎的坑进行记录</t>
   </si>
   <si>
     <t>答辩PTT第二版制作</t>
   </si>
   <si>
+    <t>制作ppt，修改PPT</t>
+  </si>
+  <si>
     <t>与项目成员讨论，梳理答辩PPT，总结介绍思路</t>
   </si>
   <si>
     <t>yolov5 onnx,tensorrt导出</t>
   </si>
   <si>
+    <t>对项目整个流程梳理，并找出存在的问题</t>
+  </si>
+  <si>
     <t>整理代码，项目所需文档</t>
   </si>
   <si>
     <t>yolov4 onnx,tensorrt导出</t>
+  </si>
+  <si>
+    <t>再次验证代码在板子上的移植</t>
   </si>
   <si>
     <t>答辩准备</t>
@@ -232,11 +256,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -259,6 +283,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -268,8 +299,97 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,6 +403,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,95 +419,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -387,21 +426,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -418,31 +442,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,13 +592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,127 +604,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,6 +682,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -669,6 +702,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,22 +730,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,17 +754,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,25 +779,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -773,16 +797,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -791,115 +815,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1254,8 +1278,8 @@
   <sheetPr/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1481,12 +1505,14 @@
       <c r="D12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="F12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1495,17 +1521,19 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="F13" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1514,22 +1542,24 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="F14" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -1544,15 +1574,17 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="F16" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1561,13 +1593,15 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1576,13 +1610,15 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1591,13 +1627,15 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1606,13 +1644,15 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="12855"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>项目日志表</t>
   </si>
@@ -221,6 +221,9 @@
     <t>提交项目进度表，制作PPT</t>
   </si>
   <si>
+    <t>梳理RFB网络结构，制作onnx2tensorRT部署文档</t>
+  </si>
+  <si>
     <t>对pt转onnx转tensorrt引擎的坑进行记录</t>
   </si>
   <si>
@@ -230,6 +233,9 @@
     <t>制作ppt，修改PPT</t>
   </si>
   <si>
+    <t>梳理PFLD网络结构，熟悉整个项目流程</t>
+  </si>
+  <si>
     <t>与项目成员讨论，梳理答辩PPT，总结介绍思路</t>
   </si>
   <si>
@@ -239,6 +245,9 @@
     <t>对项目整个流程梳理，并找出存在的问题</t>
   </si>
   <si>
+    <t>熟悉项目答辩PPT</t>
+  </si>
+  <si>
     <t>整理代码，项目所需文档</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
   </si>
   <si>
     <t>再次验证代码在板子上的移植</t>
+  </si>
+  <si>
+    <t>完善相关文档</t>
   </si>
   <si>
     <t>答辩准备</t>
@@ -256,11 +268,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -284,7 +296,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,6 +333,59 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -308,27 +395,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,53 +409,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,22 +438,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -436,19 +448,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,7 +550,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,13 +568,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,133 +628,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,9 +696,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,30 +716,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,12 +744,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -779,16 +782,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -797,133 +809,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,8 +1290,8 @@
   <sheetPr/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1599,9 +1611,11 @@
       <c r="E17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="G17" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1610,15 +1624,17 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="G18" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1627,15 +1643,17 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="G19" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1644,15 +1662,17 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="G20" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="21000" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>项目日志表</t>
   </si>
@@ -206,6 +206,9 @@
     <t>梳理要提交文档</t>
   </si>
   <si>
+    <t>调试RFB和PFLD引擎应用的代码，并出效果</t>
+  </si>
+  <si>
     <t>梳理文档信息</t>
   </si>
   <si>
@@ -218,6 +221,9 @@
     <t>提交项目进度表，答辩PPT第一版制作</t>
   </si>
   <si>
+    <t>画流程图和框架图</t>
+  </si>
+  <si>
     <t>提交项目进度表，制作PPT</t>
   </si>
   <si>
@@ -230,6 +236,9 @@
     <t>答辩PTT第二版制作</t>
   </si>
   <si>
+    <t>完善小组项目进度表</t>
+  </si>
+  <si>
     <t>制作ppt，修改PPT</t>
   </si>
   <si>
@@ -242,6 +251,9 @@
     <t>yolov5 onnx,tensorrt导出</t>
   </si>
   <si>
+    <t>调试yolov4tiny引擎应用的代码，并出效果</t>
+  </si>
+  <si>
     <t>对项目整个流程梳理，并找出存在的问题</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
   </si>
   <si>
     <t>yolov4 onnx,tensorrt导出</t>
+  </si>
+  <si>
+    <t>整理所有的代码，并美化，参与完善工作</t>
   </si>
   <si>
     <t>再次验证代码在板子上的移植</t>
@@ -270,8 +285,8 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="22">
@@ -296,6 +311,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -303,7 +325,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,16 +377,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,103 +440,19 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -448,187 +463,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,13 +709,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,49 +739,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -786,8 +768,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,149 +812,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -967,6 +982,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1290,8 +1308,8 @@
   <sheetPr/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1588,15 +1606,17 @@
       <c r="C16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="E16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1605,17 +1625,19 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="E17" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1624,17 +1646,19 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="E18" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1643,17 +1667,19 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="E19" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1662,17 +1688,19 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="E20" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11670"/>
+    <workbookView windowWidth="28800" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
   <si>
     <t>项目日志表</t>
   </si>
@@ -283,11 +283,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -311,6 +311,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -324,6 +339,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -332,7 +386,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,15 +402,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,83 +453,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -463,187 +463,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,6 +709,48 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -739,41 +781,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -791,170 +798,163 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -966,78 +966,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1304,15 +1305,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="26.5" customWidth="1"/>
@@ -1364,14 +1365,14 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" ht="42.75" spans="1:7">
-      <c r="A4" s="6">
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" ht="38" spans="1:7">
+      <c r="A4" s="5">
         <v>44032</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1383,12 +1384,12 @@
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="57" spans="1:7">
-      <c r="A5" s="6">
+    <row r="5" ht="50" spans="1:7">
+      <c r="A5" s="5">
         <v>44033</v>
       </c>
       <c r="B5" s="2"/>
@@ -1404,12 +1405,12 @@
       <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" ht="42.75" spans="1:7">
-      <c r="A6" s="6">
+    <row r="6" ht="50" spans="1:7">
+      <c r="A6" s="5">
         <v>44034</v>
       </c>
       <c r="B6" s="2"/>
@@ -1425,12 +1426,12 @@
       <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="42.75" spans="1:7">
-      <c r="A7" s="6">
+    <row r="7" ht="38" spans="1:7">
+      <c r="A7" s="5">
         <v>44035</v>
       </c>
       <c r="B7" s="2"/>
@@ -1446,12 +1447,12 @@
       <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>44036</v>
       </c>
       <c r="B8" s="2"/>
@@ -1472,7 +1473,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="3"/>
@@ -1480,17 +1481,17 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="6">
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" ht="17.6" spans="1:7">
+      <c r="A10" s="5">
         <v>44039</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -1503,15 +1504,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="6">
+    <row r="11" ht="17.6" spans="1:7">
+      <c r="A11" s="5">
         <v>44040</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1524,15 +1525,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="6">
+    <row r="12" ht="17.6" spans="1:7">
+      <c r="A12" s="5">
         <v>44041</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1545,15 +1546,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="6">
+    <row r="13" ht="17.6" spans="1:7">
+      <c r="A13" s="5">
         <v>44042</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -1566,15 +1567,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="6">
+    <row r="14" ht="17.6" spans="1:7">
+      <c r="A14" s="5">
         <v>44043</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>55</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -1596,17 +1597,17 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="6">
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" ht="17.6" spans="1:7">
+      <c r="A16" s="5">
         <v>44046</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>61</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -1619,15 +1620,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="6">
+    <row r="17" ht="17.6" spans="1:7">
+      <c r="A17" s="5">
         <v>44047</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -1640,15 +1641,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="6">
+    <row r="18" ht="17.6" spans="1:7">
+      <c r="A18" s="5">
         <v>44048</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="9" t="s">
         <v>71</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -1661,15 +1662,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="6">
+    <row r="19" ht="17.6" spans="1:7">
+      <c r="A19" s="5">
         <v>44049</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1682,15 +1683,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="6">
+    <row r="20" ht="17.6" spans="1:7">
+      <c r="A20" s="5">
         <v>44050</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>81</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -1701,6 +1702,146 @@
       </c>
       <c r="G20" s="2" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>20200808</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>20200809</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>20200810</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>20200811</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>20200812</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>20200813</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>20200814</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>20200815</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>20200816</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>20200817</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>20200818</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>20200819</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>20200820</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>20200821</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>20200822</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>20200823</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>20200824</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>20200825</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>20200826</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>20200827</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>20200828</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>20200829</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>20200830</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>20200831</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="10">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="10">
+        <v>44076</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="10">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="10">
+        <v>44078</v>
       </c>
     </row>
   </sheetData>

--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11280"/>
+    <workbookView windowWidth="28800" windowHeight="11180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -283,10 +283,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -317,6 +317,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -325,6 +339,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -333,7 +433,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,107 +448,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,187 +463,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,15 +742,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -762,6 +753,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,145 +809,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1307,10 +1307,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
@@ -1844,6 +1844,11 @@
         <v>44078</v>
       </c>
     </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="10">
+        <v>44079</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>

--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11180"/>
+    <workbookView windowWidth="28800" windowHeight="10940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -284,9 +284,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -311,21 +311,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,6 +325,127 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -346,113 +453,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -469,97 +469,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,48 +637,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -620,30 +644,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,15 +712,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -743,30 +734,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -777,6 +744,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,12 +774,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -809,148 +809,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1307,10 +1307,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
@@ -1849,6 +1849,26 @@
         <v>44079</v>
       </c>
     </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="10">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="10">
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="10">
+        <v>44082</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="10">
+        <v>44083</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>

--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="10940"/>
+    <workbookView windowWidth="26380" windowHeight="11080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -284,10 +284,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -311,7 +311,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,10 +354,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -347,17 +377,70 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,89 +453,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -475,25 +475,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,79 +619,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,61 +637,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,8 +712,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,6 +748,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -744,17 +768,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,30 +787,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -806,151 +795,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1307,10 +1307,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
@@ -1869,6 +1869,11 @@
         <v>44083</v>
       </c>
     </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="10">
+        <v>44083</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>

--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26380" windowHeight="11080"/>
+    <workbookView windowWidth="19160" windowHeight="11080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -284,10 +284,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -325,7 +325,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,6 +350,14 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -346,26 +369,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -377,6 +393,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -386,14 +433,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -401,21 +440,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -424,31 +448,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,181 +469,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,17 +718,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,7 +746,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,15 +783,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -806,145 +791,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -954,7 +954,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -982,6 +982,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1307,10 +1310,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
@@ -1365,7 +1368,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="11"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" ht="38" spans="1:7">
       <c r="A4" s="5">
@@ -1384,7 +1387,7 @@
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1405,7 +1408,7 @@
       <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1426,7 +1429,7 @@
       <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1447,7 +1450,7 @@
       <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="13" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1481,7 +1484,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="11"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" ht="17.6" spans="1:7">
       <c r="A10" s="5">
@@ -1597,7 +1600,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="11"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" ht="17.6" spans="1:7">
       <c r="A16" s="5">
@@ -1871,7 +1874,22 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="10">
-        <v>44083</v>
+        <v>44084</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="10">
+        <v>44085</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="10">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19160" windowHeight="11080"/>
+    <workbookView windowWidth="28800" windowHeight="10940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
   <si>
     <t>项目日志表</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>答辩准备</t>
+  </si>
+  <si>
+    <t>WEEK 1</t>
   </si>
 </sst>
 </file>
@@ -283,11 +286,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -311,13 +314,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -326,6 +322,29 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,36 +358,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -410,7 +399,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,7 +407,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,6 +437,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -475,49 +478,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,121 +640,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,24 +712,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -738,6 +723,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,17 +775,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -806,155 +789,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -990,6 +993,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1310,9 +1316,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
@@ -1887,9 +1893,17 @@
         <v>44086</v>
       </c>
     </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="10">
+        <v>44087</v>
+      </c>
+    </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="11" t="s">
-        <v>7</v>
+      <c r="A63" s="11"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="14" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -286,11 +286,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -314,7 +314,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,6 +352,20 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,6 +379,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -344,7 +435,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,31 +443,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,73 +456,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -472,6 +472,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -490,43 +634,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,115 +646,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,21 +712,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -746,31 +731,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,6 +762,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -801,163 +795,169 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -993,9 +993,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1316,10 +1313,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
@@ -1902,8 +1899,16 @@
       <c r="A63" s="11"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="11" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="10">
+        <v>44088</v>
+      </c>
+      <c r="B66">
+        <v>1400</v>
       </c>
     </row>
   </sheetData>

--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="10940"/>
+    <workbookView windowWidth="28800" windowHeight="11180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -286,11 +286,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -327,6 +327,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -336,60 +435,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,53 +451,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,31 +472,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,6 +598,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -520,19 +622,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,103 +646,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,30 +721,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -770,6 +746,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -780,17 +771,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,145 +789,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1315,8 +1315,8 @@
   <sheetPr/>
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
@@ -1903,12 +1903,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:3">
       <c r="A66" s="10">
         <v>44088</v>
       </c>
       <c r="B66">
         <v>1400</v>
+      </c>
+      <c r="C66">
+        <v>2354</v>
       </c>
     </row>
   </sheetData>

--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11180"/>
+    <workbookView windowWidth="28800" windowHeight="11080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -286,11 +286,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -321,7 +321,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,6 +381,62 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,120 +450,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -466,187 +466,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,6 +721,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -740,37 +749,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,15 +771,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -809,148 +779,178 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1313,10 +1313,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
@@ -1914,6 +1914,17 @@
         <v>2354</v>
       </c>
     </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="10">
+        <v>44089</v>
+      </c>
+      <c r="B67">
+        <v>1200</v>
+      </c>
+      <c r="C67">
+        <v>2255</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>

--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -287,10 +287,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -314,14 +314,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,10 +335,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -350,8 +366,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,98 +456,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -466,19 +466,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,163 +646,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,32 +715,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,17 +745,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -791,6 +756,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,85 +812,85 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -899,61 +899,61 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1313,10 +1313,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
@@ -1908,10 +1908,10 @@
         <v>44088</v>
       </c>
       <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
         <v>1400</v>
-      </c>
-      <c r="C66">
-        <v>2354</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1919,10 +1919,43 @@
         <v>44089</v>
       </c>
       <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
         <v>1200</v>
       </c>
-      <c r="C67">
-        <v>2255</v>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="10">
+        <v>44090</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="10">
+        <v>44091</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="10">
+        <v>44092</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11080"/>
+    <workbookView windowWidth="28800" windowHeight="10820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -286,11 +286,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -314,7 +314,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,6 +335,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -344,7 +358,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,6 +372,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -366,96 +450,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -466,162 +466,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -629,24 +647,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,8 +715,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,6 +750,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,45 +799,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -794,166 +809,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1313,10 +1313,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
@@ -1958,6 +1958,17 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="10">
+        <v>44093</v>
+      </c>
+      <c r="B71">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>1400</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>

--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -286,11 +286,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -321,7 +321,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,15 +343,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,8 +390,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,79 +436,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,6 +449,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -466,13 +466,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,96 +640,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -581,72 +647,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,21 +755,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -809,148 +794,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1313,10 +1313,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
@@ -1969,6 +1969,17 @@
         <v>1400</v>
       </c>
     </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="10">
+        <v>44094</v>
+      </c>
+      <c r="B72">
+        <v>7</v>
+      </c>
+      <c r="C72">
+        <v>1700</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>

--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="10820"/>
+    <workbookView windowWidth="28800" windowHeight="10940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -289,8 +289,8 @@
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -324,6 +324,21 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -337,6 +352,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -351,45 +405,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -407,13 +422,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -428,11 +436,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -444,13 +451,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -466,13 +466,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,7 +598,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,157 +646,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,16 +731,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,16 +755,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,145 +812,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1313,10 +1313,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
@@ -1980,6 +1980,83 @@
         <v>1700</v>
       </c>
     </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="10">
+        <v>44095</v>
+      </c>
+      <c r="B73">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="10">
+        <v>44096</v>
+      </c>
+      <c r="B74">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="10">
+        <v>44097</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="10">
+        <v>44098</v>
+      </c>
+      <c r="B76">
+        <v>11</v>
+      </c>
+      <c r="C76">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="10">
+        <v>44099</v>
+      </c>
+      <c r="B77">
+        <v>12</v>
+      </c>
+      <c r="C77">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="10">
+        <v>44100</v>
+      </c>
+      <c r="B78">
+        <v>13</v>
+      </c>
+      <c r="C78">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="10">
+        <v>44101</v>
+      </c>
+      <c r="B79">
+        <v>14</v>
+      </c>
+      <c r="C79">
+        <v>1707</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>

--- a/项目成员日志表.xlsx
+++ b/项目成员日志表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
   <si>
     <t>项目日志表</t>
   </si>
@@ -276,9 +276,6 @@
   </si>
   <si>
     <t>答辩准备</t>
-  </si>
-  <si>
-    <t>WEEK 1</t>
   </si>
 </sst>
 </file>
@@ -287,10 +284,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -314,13 +311,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -342,6 +332,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -350,6 +354,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -359,15 +431,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,14 +446,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -396,66 +453,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -472,19 +469,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,7 +619,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,114 +631,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -623,30 +644,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,8 +712,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,7 +746,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,8 +783,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -768,192 +806,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1315,8 +1312,8 @@
   <sheetPr/>
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
@@ -1710,352 +1707,92 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
-        <v>20200808</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
-        <v>20200809</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
-        <v>20200810</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
-        <v>20200811</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
-        <v>20200812</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28">
-        <v>20200813</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29">
-        <v>20200814</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30">
-        <v>20200815</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31">
-        <v>20200816</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32">
-        <v>20200817</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
-        <v>20200818</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
-        <v>20200819</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
-        <v>20200820</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36">
-        <v>20200821</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37">
-        <v>20200822</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38">
-        <v>20200823</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39">
-        <v>20200824</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40">
-        <v>20200825</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41">
-        <v>20200826</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42">
-        <v>20200827</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43">
-        <v>20200828</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44">
-        <v>20200829</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45">
-        <v>20200830</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46">
-        <v>20200831</v>
-      </c>
-    </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="10">
-        <v>44075</v>
-      </c>
+      <c r="A50" s="10"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="10">
-        <v>44076</v>
-      </c>
+      <c r="A51" s="10"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="10">
-        <v>44077</v>
-      </c>
+      <c r="A52" s="10"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="10">
-        <v>44078</v>
-      </c>
+      <c r="A53" s="10"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="10">
-        <v>44079</v>
-      </c>
+      <c r="A54" s="10"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="10">
-        <v>44080</v>
-      </c>
+      <c r="A55" s="10"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="10">
-        <v>44081</v>
-      </c>
+      <c r="A56" s="10"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="10">
-        <v>44082</v>
-      </c>
+      <c r="A57" s="10"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="10">
-        <v>44083</v>
-      </c>
+      <c r="A58" s="10"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="10">
-        <v>44084</v>
-      </c>
+      <c r="A59" s="10"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="10">
-        <v>44085</v>
-      </c>
+      <c r="A60" s="10"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="10">
-        <v>44086</v>
-      </c>
+      <c r="A61" s="10"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="10">
-        <v>44087</v>
-      </c>
+      <c r="A62" s="10"/>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="11"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="10">
-        <v>44088</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="10">
-        <v>44089</v>
-      </c>
-      <c r="B67">
-        <v>2</v>
-      </c>
-      <c r="C67">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="10">
-        <v>44090</v>
-      </c>
-      <c r="B68">
-        <v>3</v>
-      </c>
-      <c r="C68">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="10">
-        <v>44091</v>
-      </c>
-      <c r="B69">
-        <v>4</v>
-      </c>
-      <c r="C69">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="10">
-        <v>44092</v>
-      </c>
-      <c r="B70">
-        <v>5</v>
-      </c>
-      <c r="C70">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="10">
-        <v>44093</v>
-      </c>
-      <c r="B71">
-        <v>6</v>
-      </c>
-      <c r="C71">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="10">
-        <v>44094</v>
-      </c>
-      <c r="B72">
-        <v>7</v>
-      </c>
-      <c r="C72">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="10">
-        <v>44095</v>
-      </c>
-      <c r="B73">
-        <v>8</v>
-      </c>
-      <c r="C73">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="10">
-        <v>44096</v>
-      </c>
-      <c r="B74">
-        <v>9</v>
-      </c>
-      <c r="C74">
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="10">
-        <v>44097</v>
-      </c>
-      <c r="B75">
-        <v>10</v>
-      </c>
-      <c r="C75">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="10">
-        <v>44098</v>
-      </c>
-      <c r="B76">
-        <v>11</v>
-      </c>
-      <c r="C76">
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="10">
-        <v>44099</v>
-      </c>
-      <c r="B77">
-        <v>12</v>
-      </c>
-      <c r="C77">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="10">
-        <v>44100</v>
-      </c>
-      <c r="B78">
-        <v>13</v>
-      </c>
-      <c r="C78">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="10">
-        <v>44101</v>
-      </c>
-      <c r="B79">
-        <v>14</v>
-      </c>
-      <c r="C79">
-        <v>1707</v>
-      </c>
+      <c r="A65" s="11"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="10"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="10"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="10"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="10"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="10"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="10"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="10"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="10"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="10"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="10"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="10"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="10"/>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="10"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
